--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表目录" sheetId="1" r:id="rId1"/>
     <sheet name="测试表01" sheetId="2" r:id="rId2"/>
+    <sheet name="测试表02" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>表名</t>
   </si>
@@ -209,6 +210,29 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试表02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例表02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_TWO</t>
+  </si>
+  <si>
+    <t>SYS_TEST_TWO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +368,35 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -656,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,7 +744,9 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
@@ -701,12 +755,29 @@
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -719,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,6 +1036,291 @@
       </c>
       <c r="H8" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:H1">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据库表目录" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -885,7 +885,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -1035,7 +1035,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -1320,7 +1320,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
